--- a/results/pseudomonas_putida/Phase_Study/BAR_condition-specific_enrichment_analysis.xlsx
+++ b/results/pseudomonas_putida/Phase_Study/BAR_condition-specific_enrichment_analysis.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lb-wt_transition_phase_Presence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lb-wt_exponential_phase_Presence" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lb-wt_stationary_phase_Presence" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lb-wt_transition_phase" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lb-wt_exponential_phase" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lb-wt_stationary_phase" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,102 +459,102 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.557155572889345e-33</v>
+        <v>1.442346882333563e-18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.84</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9166666666666666</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.472935956714633e-24</v>
+        <v>4.358972019427303e-17</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5193798449612403</v>
+        <v>0.6776315789473685</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5193798449612403</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.622786717980418e-21</v>
+        <v>1.448670390201229e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7037037037037037</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7037037037037037</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.105563075066175e-20</v>
+        <v>4.15761265680412e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>0.445859872611465</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.445859872611465</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.237706908920444e-17</v>
+        <v>5.019292428001973e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6538461538461539</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -562,1314 +562,1314 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.174179777702893e-16</v>
+        <v>5.109362754937274e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7878787878787878</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.884479248531336e-13</v>
+        <v>5.731661364495759e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.33916259018552e-12</v>
+        <v>8.017603484237947e-05</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.955397992450781e-12</v>
+        <v>0.0001431254761072522</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7241379310344828</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8.616247413754948e-12</v>
+        <v>0.0002652457967687264</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7826086956521739</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9.505999409360391e-12</v>
+        <v>0.0005495273121479057</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.014511307259118e-11</v>
+        <v>0.0005495273121479057</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.9</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7142857142857143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.989667352882826e-11</v>
+        <v>0.0006549149173216891</v>
       </c>
       <c r="D14" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7.282589009789074e-11</v>
+        <v>0.001125291355685501</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.156748780586337e-10</v>
+        <v>0.001869996552782653</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9285714285714286</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.601777398348618e-10</v>
+        <v>0.001869996552782653</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7391304347826086</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7391304347826086</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.616420077993818e-10</v>
+        <v>0.001869996552782653</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5306122448979592</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5306122448979592</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.774161312560754e-10</v>
+        <v>0.001869996552782653</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.337860523460392e-10</v>
+        <v>0.002075683248124223</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5833333333333334</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3.777043722471138e-09</v>
+        <v>0.002560399147624979</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6206896551724138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4.987549902111911e-09</v>
+        <v>0.002882350037440443</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9166666666666666</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4.987549902111911e-09</v>
+        <v>0.00306789954113716</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9166666666666666</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6.278944012768426e-09</v>
+        <v>0.003634777791135375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6666666666666666</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.232717182265724e-08</v>
+        <v>0.004909759305529802</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.387233086513045e-08</v>
+        <v>0.005336064382061437</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.387233086513045e-08</v>
+        <v>0.005714172983003287</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.822708645049877e-08</v>
+        <v>0.006138621375723862</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8461538461538461</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2.989012410000232e-08</v>
+        <v>0.006148168627473676</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6521739130434783</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.238158534088979e-08</v>
+        <v>0.009160486365548436</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9090909090909091</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3.238158534088979e-08</v>
+        <v>0.01267980580754014</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9090909090909091</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3.519596065814696e-08</v>
+        <v>0.01267980580754014</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5862068965517241</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7.050714672820699e-08</v>
+        <v>0.01281016411260449</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5666666666666667</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.685319825751775e-07</v>
+        <v>0.02573761208878761</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.693517625347791e-07</v>
+        <v>0.05474021168524489</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8333333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2.083231522984812e-07</v>
+        <v>0.05643119643572266</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.000060203607643e-06</v>
+        <v>0.06150053854923709</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8181818181818182</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.188492674073936e-06</v>
+        <v>0.07510620080085856</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.188492674073936e-06</v>
+        <v>0.1075871703472811</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.188492674073936e-06</v>
+        <v>0.121467788282704</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.274183949996261e-06</v>
+        <v>0.1456273182512417</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5600000000000001</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.282453873767288e-06</v>
+        <v>0.2021633367496257</v>
       </c>
       <c r="D42" t="n">
-        <v>0.631578947368421</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E42" t="n">
-        <v>0.631578947368421</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.952414121960289e-06</v>
+        <v>0.2487830611805783</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7142857142857143</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6.733742345642912e-06</v>
+        <v>0.2516088087449592</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.283664662864916e-05</v>
+        <v>0.3559714157776659</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.5</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7777777777777778</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Biomass and maintenance functions</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.4397932762669525</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E46" t="n">
         <v>4</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>5.147423530856088e-05</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>9.593206422730162e-05</v>
+        <v>0.4397932762669525</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0001109417271857028</v>
+        <v>0.4397932762669525</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6153846153846154</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.0002233807882187314</v>
+        <v>0.4557982736605288</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4285714285714285</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0003116142941308761</v>
+        <v>0.5043921143836126</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8333333333333334</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.0004141006756723622</v>
+        <v>0.5169868246625933</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0.3523809523809524</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.0004141006756723622</v>
+        <v>0.5760802581867313</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.0004770635728143452</v>
+        <v>0.5795963337545341</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.000961964441186664</v>
+        <v>0.6493639308138679</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E54" t="n">
-        <v>0.7142857142857143</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.00162414546622623</v>
+        <v>0.6532335965488211</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.0023499094328562</v>
+        <v>0.6840678608903036</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3428571428571429</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.004497036098512496</v>
+        <v>0.7467351817190271</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5555555555555556</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.004881331256629066</v>
+        <v>0.769974621824535</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6666666666666666</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.01038807099022537</v>
+        <v>0.7836928288003282</v>
       </c>
       <c r="D59" t="n">
-        <v>0.75</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E59" t="n">
-        <v>0.75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.02543364191866267</v>
+        <v>0.8895206604763629</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3529411764705883</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.1003424665635963</v>
+        <v>0.9091581841704739</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.1258236252023964</v>
+        <v>0.9258634511795395</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3333333333333333</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.142882818116463</v>
+        <v>0.9594928875292532</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.1517588459039151</v>
+        <v>0.9933339604416862</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.1966031985508222</v>
+        <v>0.9949012209361846</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2272727272727273</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.1997538314710076</v>
+        <v>0.9960788802725103</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.175</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2727272727272727</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_tRNA_Charging</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.2068610369310692</v>
+        <v>0.9993881514295493</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3333333333333333</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.5375435813194684</v>
+        <v>0.999504592128898</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2</v>
+        <v>0.2534562211981567</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.5600668128573973</v>
+        <v>0.9995888349725293</v>
       </c>
       <c r="D69" t="n">
-        <v>0.15</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E69" t="n">
-        <v>0.15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.6152759144263831</v>
+        <v>0.999785394688541</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1428571428571428</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.7506020564207179</v>
+        <v>0.9999088651082088</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.2116788321167883</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1111111111111111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.8168842976840913</v>
+        <v>0.9999550629167222</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E72" t="n">
-        <v>0.09090909090909091</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.9036768463729984</v>
+        <v>0.9999879114987326</v>
       </c>
       <c r="D73" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E73" t="n">
-        <v>0.07692307692307693</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.9154568053566542</v>
+        <v>0.999997906318204</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0625</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0625</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0.9999999999999959</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>0.1622516556291391</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1879,16 +1879,16 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1917,16 +1917,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1936,16 +1936,16 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1955,12 +1955,12 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1974,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1993,16 +1993,16 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2012,16 +2012,16 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Aliphatic open-chain ketones metabolism</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2031,16 +2031,16 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>S_Xenobiotic_tolerance</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2069,16 +2069,16 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2088,16 +2088,16 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2107,16 +2107,16 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2126,7 +2126,64 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
         <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Extracellular exchange</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="E91" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Aliphatic open-chain ketones metabolism</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +2197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2172,952 +2229,952 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.952239162557541e-29</v>
+        <v>7.169386185717113e-20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.8533333333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8148148148148148</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.235922346930566e-27</v>
+        <v>1.231607164930988e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5348837209302325</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5348837209302325</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.091932005267758e-25</v>
+        <v>2.185610418834133e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4777070063694268</v>
+        <v>0.5460526315789473</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4777070063694268</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.951134409794457e-18</v>
+        <v>3.573378158808735e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8181818181818182</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8181818181818182</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.136387489902399e-18</v>
+        <v>3.573378158808735e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6875</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6875</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.075444961401172e-17</v>
+        <v>5.131125101689666e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.85</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6538461538461539</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9.642715356644978e-15</v>
+        <v>5.153051842679318e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.5974025974025974</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7666666666666667</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.117019814141748e-13</v>
+        <v>2.050931070408433e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.222095448921358e-13</v>
+        <v>2.515805074276e-05</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9.784960927239312e-13</v>
+        <v>2.515805074276e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7241379310344828</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7241379310344828</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.259295658729769e-12</v>
+        <v>5.031744913899806e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7142857142857143</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6.045145938670524e-12</v>
+        <v>7.275638460592039e-05</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9.607423783503264e-12</v>
+        <v>7.603632203367664e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5510204081632653</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5510204081632653</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>S_Glycolysis</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.000232728304058</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="E15" t="n">
         <v>18</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>4.255848297470769e-11</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5.100962162875467e-11</v>
+        <v>0.0003171677864583249</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6111111111111112</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7.394331905778958e-11</v>
+        <v>0.0006073171245613795</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9285714285714286</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9.132566339031213e-11</v>
+        <v>0.0006073171245613795</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7391304347826086</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7391304347826086</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.910882904372528e-10</v>
+        <v>0.0007823181966013703</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6551724137931034</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6551724137931034</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.731517533111599e-10</v>
+        <v>0.001014414523419486</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7083333333333334</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3.256613701512035e-10</v>
+        <v>0.001315280037175587</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3.256613701512035e-10</v>
+        <v>0.001752938064074892</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3.256613701512035e-10</v>
+        <v>0.002332819563744854</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.003386624910696213</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E24" t="n">
         <v>8</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>S_Fatty_Acid_Metabolism</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1.431084126490601e-09</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.6956521739130435</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.386178429841404e-09</v>
+        <v>0.003386624910696213</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3.088496468189047e-09</v>
+        <v>0.005056352441487494</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8571428571428571</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3.419591001647131e-09</v>
+        <v>0.005056352441487494</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9166666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3.419591001647131e-09</v>
+        <v>0.00562883216455828</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9166666666666666</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3.746948872849485e-09</v>
+        <v>0.008626663701155961</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6666666666666666</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.74640595227523e-08</v>
+        <v>0.01166416728736598</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.945207578157109e-08</v>
+        <v>0.01166416728736598</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8461538461538461</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.070816244155748e-08</v>
+        <v>0.01510474377230085</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5862068965517241</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2.29913490267434e-08</v>
+        <v>0.0211084474981314</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9090909090909091</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9.322869127094621e-07</v>
+        <v>0.02157342432855051</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>9.322869127094621e-07</v>
+        <v>0.0243467800725352</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.009330724312332e-06</v>
+        <v>0.02490052251386438</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8888888888888888</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.009330724312332e-06</v>
+        <v>0.1162541149914436</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.45</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8888888888888888</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2.593235065958853e-06</v>
+        <v>0.1242305671642659</v>
       </c>
       <c r="D38" t="n">
         <v>0.75</v>
       </c>
       <c r="E38" t="n">
-        <v>0.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>8.490150251696649e-06</v>
+        <v>0.1328007198491608</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5789473684210527</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2.600802012071724e-05</v>
+        <v>0.2050891834266559</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.3761904761904762</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7777777777777778</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.015861723764208e-05</v>
+        <v>0.2433660077134176</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4642857142857143</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4.061177808197921e-05</v>
+        <v>0.3257088801992679</v>
       </c>
       <c r="D42" t="n">
-        <v>0.48</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E42" t="n">
-        <v>0.48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4.200674391202975e-05</v>
+        <v>0.3483823742437183</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8571428571428571</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6.385226748852793e-05</v>
+        <v>0.3886023238590773</v>
       </c>
       <c r="D44" t="n">
-        <v>0.36</v>
+        <v>0.3612903225806451</v>
       </c>
       <c r="E44" t="n">
-        <v>0.36</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>7.634741518609716e-05</v>
+        <v>0.4284497074452194</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.0003605510194866578</v>
+        <v>0.4331206727525612</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.0003605510194866578</v>
+        <v>0.4331206727525612</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0003605510194866578</v>
+        <v>0.5670913159382229</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.0003929835313913016</v>
+        <v>0.5747079597618141</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0008163921488074718</v>
+        <v>0.5806999913978661</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7142857142857143</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.001317256563935177</v>
+        <v>0.5856862961894755</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5</v>
+        <v>0.34375</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -3126,425 +3183,425 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.001737164394086053</v>
+        <v>0.6417988778245194</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3428571428571429</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.004287225760502263</v>
+        <v>0.6770134044075569</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6666666666666666</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.004901252796011969</v>
+        <v>0.6770134044075569</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4615384615384616</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.01590018407294445</v>
+        <v>0.720605661548025</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.02109846167666754</v>
+        <v>0.7609840329253672</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.03076838329381312</v>
+        <v>0.7749843066707687</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3043478260869565</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.05337463398834856</v>
+        <v>0.8841944837936748</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3636363636363636</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.0942997622964817</v>
+        <v>0.9010690682934671</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.0942997622964817</v>
+        <v>0.9232443237633535</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.1160937411272521</v>
+        <v>0.9366200040166422</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3333333333333333</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.1380301941049605</v>
+        <v>0.9499945046633557</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.1956960952681202</v>
+        <v>0.9499945046633557</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3333333333333333</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.3611595642608468</v>
+        <v>0.9930843939060704</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1818181818181818</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.4229515761895731</v>
+        <v>0.9992876540251373</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1764705882352941</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_tRNA_Charging</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.5242977543989232</v>
+        <v>0.9993112993983401</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.5350519585312506</v>
+        <v>0.9995344986482056</v>
       </c>
       <c r="D67" t="n">
-        <v>0.15</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E67" t="n">
-        <v>0.15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.5350519585312506</v>
+        <v>0.9997508293207338</v>
       </c>
       <c r="D68" t="n">
-        <v>0.15</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="E68" t="n">
-        <v>0.15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.5900180862250839</v>
+        <v>0.9998698441020701</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2116788321167883</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1666666666666667</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.5950884083331592</v>
+        <v>0.9999291813347</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2350230414746544</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1428571428571428</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.7168182253997627</v>
+        <v>0.9999975066581758</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1153846153846154</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.8051393273668201</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.09090909090909091</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.9074513814364942</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0625</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3554,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -3563,7 +3620,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3573,16 +3630,16 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3592,16 +3649,16 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3611,35 +3668,35 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>0.1264367816091954</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Xenobiotic_tolerance</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3649,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3668,16 +3725,16 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3687,16 +3744,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3706,16 +3763,16 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Aliphatic open-chain ketones metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3725,31 +3782,31 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>0.1324503311258278</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3763,16 +3820,16 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3782,16 +3839,16 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3801,16 +3858,16 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3820,16 +3877,16 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3839,7 +3896,64 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
         <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>S_Sulfur_Metabolism</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Aliphatic open-chain ketones metabolism</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3853,7 +3967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3885,154 +3999,154 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.324343444339279e-34</v>
+        <v>9.866579233459943e-27</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.743421052631579</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9166666666666666</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.881411215829366e-27</v>
+        <v>2.677859155807461e-16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4840764331210191</v>
+        <v>0.7866666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4840764331210191</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.664656500938645e-22</v>
+        <v>5.665873579836017e-08</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4806201550387597</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4806201550387597</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.882939859073547e-18</v>
+        <v>2.692953962156319e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6481481481481481</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6481481481481481</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.790917299273047e-16</v>
+        <v>4.572615893074584e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7575757575757576</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7575757575757576</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5.309366240350559e-16</v>
+        <v>7.157392211091208e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6153846153846154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.907110336770661e-14</v>
+        <v>0.0003221516022269613</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.170282318543695e-13</v>
+        <v>0.0003221516022269613</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.9</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7241379310344828</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -4041,383 +4155,383 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.70941441062531e-12</v>
+        <v>0.0004233424586407647</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7826086956521739</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7826086956521739</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.870773972048906e-12</v>
+        <v>0.0004885955161632031</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7142857142857143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.987680614109912e-12</v>
+        <v>0.0006157123580584995</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.595557378144379e-11</v>
+        <v>0.0006157123580584995</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.900084351811407e-11</v>
+        <v>0.0007631597546240136</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.7</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9285714285714286</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5.442881869082743e-11</v>
+        <v>0.00128676724421402</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7391304347826086</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7391304347826086</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.291302570081145e-10</v>
+        <v>0.00128676724421402</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.291302570081145e-10</v>
+        <v>0.001489997184946372</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.589046634348701e-10</v>
+        <v>0.002412472093076138</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.875</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5102040816326531</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.648386339478335e-10</v>
+        <v>0.003675709252166053</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5833333333333334</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.327906203691007e-09</v>
+        <v>0.003908455184608491</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6666666666666666</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.416864135374804e-09</v>
+        <v>0.006467315957653553</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9166666666666666</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.285002511343714e-09</v>
+        <v>0.007785118057435103</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.185224640027082e-08</v>
+        <v>0.007785118057435103</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6521739130434783</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.310355035391785e-08</v>
+        <v>0.008138394850789954</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.310355035391785e-08</v>
+        <v>0.008199188733352413</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.678020141037355e-08</v>
+        <v>0.008457891244408666</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9090909090909091</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5.666223903289005e-08</v>
+        <v>0.01319101156080972</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7857142857142857</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8.859688778536721e-08</v>
+        <v>0.01701689488658084</v>
       </c>
       <c r="D28" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8333333333333334</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.114002474002827e-07</v>
+        <v>0.01801021778055916</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5517241379310345</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4425,839 +4539,839 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.154315457369883e-07</v>
+        <v>0.01863184755138581</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.593625952067546e-07</v>
+        <v>0.04368297315881742</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8181818181818182</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7.458411031865828e-07</v>
+        <v>0.07322556464825017</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7.458411031865828e-07</v>
+        <v>0.08310813707648566</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.040944159768519e-06</v>
+        <v>0.0846558333047545</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7142857142857143</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.501178401368997e-06</v>
+        <v>0.1644194617730085</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.971659717470916e-06</v>
+        <v>0.1685141796958126</v>
       </c>
       <c r="D36" t="n">
-        <v>0.75</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E36" t="n">
-        <v>0.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6.191656643483365e-06</v>
+        <v>0.1685141796958126</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5789473684210527</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.033537889921852e-05</v>
+        <v>0.1954061372973436</v>
       </c>
       <c r="D38" t="n">
-        <v>0.38</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E38" t="n">
-        <v>0.38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2.933506339497309e-05</v>
+        <v>0.1954061372973436</v>
       </c>
       <c r="D39" t="n">
-        <v>0.48</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E39" t="n">
-        <v>0.48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3.48443218911477e-05</v>
+        <v>0.2067480924711445</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8571428571428571</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6.186525745449196e-05</v>
+        <v>0.2244710916268267</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7</v>
+        <v>0.3766233766233766</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0001167871794948632</v>
+        <v>0.2636897700609458</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.3523809523809524</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4285714285714285</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.0001235543698939467</v>
+        <v>0.3136631847117521</v>
       </c>
       <c r="D43" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E43" t="n">
-        <v>0.75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.0003174708112000666</v>
+        <v>0.3562658836282677</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.0003174708112000666</v>
+        <v>0.4021409033426689</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.0003286923642675899</v>
+        <v>0.4021409033426689</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.0005742045111685462</v>
+        <v>0.4021409033426689</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4166666666666667</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0007019102714872965</v>
+        <v>0.4387647161065416</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7142857142857143</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.001085424458686961</v>
+        <v>0.551674477680987</v>
       </c>
       <c r="D49" t="n">
         <v>0.5</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.001310929673481679</v>
+        <v>0.5594074652181982</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3428571428571429</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.003131714074019688</v>
+        <v>0.586722789549597</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3448275862068966</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.003337267286486991</v>
+        <v>0.6153233699814944</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.32</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5555555555555556</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.003804153268740428</v>
+        <v>0.6431815087932746</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6666666666666666</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.003804153268740428</v>
+        <v>0.6686121121746971</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6666666666666666</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.004166614094279208</v>
+        <v>0.7104687764942732</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4615384615384616</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.008577710001398828</v>
+        <v>0.7317049322293951</v>
       </c>
       <c r="D56" t="n">
-        <v>0.75</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E56" t="n">
-        <v>0.75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.009714395652294455</v>
+        <v>0.8201280619263975</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.275</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4545454545454545</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.01875900432082706</v>
+        <v>0.8562166428845158</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3529411764705883</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.0215248857456722</v>
+        <v>0.8680857959699617</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.25</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3846153846153846</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.08904824771885402</v>
+        <v>0.8811903727930076</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.1077382078656706</v>
+        <v>0.9100708843226573</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3333333333333333</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.1337167505391804</v>
+        <v>0.9597641929319711</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.1355359036808084</v>
+        <v>0.9859796212875032</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.1614299008009889</v>
+        <v>0.9946284043634925</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2272727272727273</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_tRNA_Charging</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.1858891683796603</v>
+        <v>0.9988207336591854</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3333333333333333</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.5122704911113838</v>
+        <v>0.9990372786894827</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2</v>
+        <v>0.2396313364055299</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.5122732806663126</v>
+        <v>0.9991815684396961</v>
       </c>
       <c r="D67" t="n">
-        <v>0.15</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E67" t="n">
-        <v>0.15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.5765845903854607</v>
+        <v>0.9995095211642576</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1428571428571428</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.725523580532911</v>
+        <v>0.9998237023959193</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1111111111111111</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.7941288292311717</v>
+        <v>0.999905479210534</v>
       </c>
       <c r="D70" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E70" t="n">
-        <v>0.09090909090909091</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.8805572222521877</v>
+        <v>0.9999394164809147</v>
       </c>
       <c r="D71" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1897810218978102</v>
       </c>
       <c r="E71" t="n">
-        <v>0.07692307692307693</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.8997440896618466</v>
+        <v>0.9999944679305471</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0625</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0625</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0.999999999999951</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>0.152317880794702</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -5267,16 +5381,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -5286,16 +5400,16 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Xenobiotic_tolerance</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -5305,16 +5419,16 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -5324,16 +5438,16 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -5343,16 +5457,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -5362,16 +5476,16 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -5381,16 +5495,16 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -5400,16 +5514,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -5419,16 +5533,16 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Aliphatic open-chain ketones metabolism</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -5438,16 +5552,16 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -5457,16 +5571,16 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -5476,16 +5590,16 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -5495,16 +5609,16 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -5514,16 +5628,16 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -5533,16 +5647,16 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -5552,7 +5666,64 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
         <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Extracellular exchange</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.1436781609195402</v>
+      </c>
+      <c r="E91" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Aliphatic open-chain ketones metabolism</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
